--- a/biology/Zoologie/Crocodylus_suchus/Crocodylus_suchus.xlsx
+++ b/biology/Zoologie/Crocodylus_suchus/Crocodylus_suchus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crocodylus suchus, le Crocodile d'Afrique de l'ouest ou Crocodile du désert est un crocodilien de la famille des Crocodylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crocodylus suchus, le Crocodile d'Afrique de l'ouest ou Crocodile du désert est un crocodilien de la famille des Crocodylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Mauritanie, au Sénégal, en Gambie, au Mali, en Guinée, au Burkina Faso, au Ghana, au Togo, au Bénin, au Nigeria, au Niger, au Tchad, en Centrafrique, au Cameroun au Maroc, en Algérie et en Guinée équatoriale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Mauritanie, au Sénégal, en Gambie, au Mali, en Guinée, au Burkina Faso, au Ghana, au Togo, au Bénin, au Nigeria, au Niger, au Tchad, en Centrafrique, au Cameroun au Maroc, en Algérie et en Guinée équatoriale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce était considérée auparavant comme une sous-espèce de Crocodylus niloticus[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce était considérée auparavant comme une sous-espèce de Crocodylus niloticus.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>En captivité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En Europe, on retrouve cette espèce dans 7 zoos, au Zoo de Cologne (Allemagne), au Zoo de Copenhague (Danemark), au Zoo de Dublin (Irlande), au Kristiansand Zoo and Amusement Park (Norvège), au zoo de Lyon (Parc de la tête d'or), à Aquatis (Suisse), et à la ferme aux crocodiles de Pierrelate. [réf. nécessaire].
 En Afrique, on le retrouve dans le Crocoparc Agadir (Maroc).
@@ -605,9 +623,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le crocodile d'Afrique de l'Ouest est plus petit que celui du Nil, avec une longueur moyenne à l'âge adulte de 1,5 à 2,5 mètres et un maximum aux environs de 3 à 4 mètres[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le crocodile d'Afrique de l'Ouest est plus petit que celui du Nil, avec une longueur moyenne à l'âge adulte de 1,5 à 2,5 mètres et un maximum aux environs de 3 à 4 mètres.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Geoffroy, 1807 : Description de deux crocodiles qui existent dans le Nil, comparés au crocodile de Saint-Domingue. Annales du Muséum d'Histoire Naturelle, vol. 10, p. 67-86.
 Sur les autres projets Wikimedia :
